--- a/Mr.zhang/学生骨干成绩统计2016-8.xlsx
+++ b/Mr.zhang/学生骨干成绩统计2016-8.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28080" windowHeight="17540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28080" windowHeight="16440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="学生会" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">班级!$H$1:$H$60</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="199">
   <si>
     <t>序号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -757,176 +757,167 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>创新创业部副部长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件15103班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李昊伦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万子贤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预备党员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件13005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件13002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件13008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件C13001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件13001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件13001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件13004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件13008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件13003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件14102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活部部长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车艳茹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘婕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邹帅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆柏宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张融 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王建长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文体委员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团支书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>软件14101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>创新创业部副部长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>张鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙东石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公室部长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏兴晨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件14104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预备党员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系学生创新创业部长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>党越鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件14002</t>
   </si>
   <si>
     <t>曹帅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>软件15103班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张鹏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李昊伦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魏星辰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>党越鹏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万子贤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙东石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>外联部部长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预备党员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预备党员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件13005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件13002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件13008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件C13001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件13001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件13001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件13004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件13008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件13003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件14102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生活部部长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车艳茹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘婕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邹帅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陆柏宇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张融 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王建长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文体委员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>团支书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班团支书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五星</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1051,8 +1042,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1089,6 +1102,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1114,7 +1132,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1151,8 +1169,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1318,9 +1339,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1329,6 +1347,30 @@
     </xf>
     <xf numFmtId="177" fontId="16" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="4" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1339,11 +1381,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="18">
+  <cellStyles count="19">
     <cellStyle name="標準 2" xfId="14"/>
     <cellStyle name="標準 3" xfId="15"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1361,6 +1403,7 @@
     <cellStyle name="常规 9 2" xfId="10"/>
     <cellStyle name="常规_Sheet1" xfId="1"/>
     <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="好" xfId="18" builtinId="26"/>
     <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1419,7 +1462,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1454,7 +1497,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1662,49 +1705,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="5.375" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="6.125" customWidth="1"/>
+    <col min="4" max="4" width="8.875" customWidth="1"/>
     <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.375" customWidth="1"/>
     <col min="7" max="7" width="18.5" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
     <col min="9" max="9" width="13.5" customWidth="1"/>
-    <col min="12" max="12" width="13.1640625" style="5" customWidth="1"/>
-    <col min="17" max="17" width="13.1640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="13.125" style="5" customWidth="1"/>
+    <col min="17" max="17" width="13.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="28.5" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
       <c r="S1" s="12"/>
       <c r="T1" s="12"/>
     </row>
@@ -2547,42 +2590,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BM24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="47"/>
-    <col min="3" max="3" width="10.4140625" style="47" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.83203125" style="47"/>
-    <col min="6" max="6" width="16.25" style="47" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="47"/>
+    <col min="1" max="1" width="9" style="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="47"/>
+    <col min="3" max="3" width="12.75" style="47" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.875" style="47"/>
+    <col min="6" max="6" width="32.625" style="47" customWidth="1"/>
+    <col min="7" max="10" width="8.875" style="47"/>
+    <col min="11" max="12" width="9" style="47" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="8.875" style="47"/>
+    <col min="16" max="19" width="9" style="47" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.875" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="28.5" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
       <c r="R1" s="46"/>
       <c r="S1" s="46"/>
     </row>
@@ -2662,10 +2710,10 @@
         <v>42</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G3" s="32" t="s">
         <v>152</v>
@@ -2697,14 +2745,14 @@
       <c r="P3" s="44">
         <v>86.67</v>
       </c>
-      <c r="Q3" s="45">
+      <c r="Q3" s="35">
         <v>32</v>
       </c>
       <c r="R3" s="32">
         <v>279</v>
       </c>
       <c r="S3" s="48">
-        <v>11.469534050179211</v>
+        <v>11.469534050179201</v>
       </c>
       <c r="T3" s="32"/>
     </row>
@@ -2722,10 +2770,10 @@
         <v>43</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G4" s="32" t="s">
         <v>153</v>
@@ -2764,7 +2812,7 @@
         <v>279</v>
       </c>
       <c r="S4" s="48">
-        <v>61.648745519713266</v>
+        <v>61.648745519713302</v>
       </c>
       <c r="T4" s="32"/>
     </row>
@@ -2782,10 +2830,10 @@
         <v>45</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G5" s="32" t="s">
         <v>153</v>
@@ -2842,10 +2890,10 @@
         <v>45</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G6" s="35" t="s">
         <v>154</v>
@@ -2902,10 +2950,10 @@
         <v>46</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G7" s="35" t="s">
         <v>155</v>
@@ -2962,7 +3010,7 @@
         <v>49</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F8" s="35" t="s">
         <v>157</v>
@@ -3004,7 +3052,7 @@
         <v>279</v>
       </c>
       <c r="S8" s="48">
-        <v>31.899641577060933</v>
+        <v>31.899641577060901</v>
       </c>
       <c r="T8" s="35"/>
     </row>
@@ -3022,10 +3070,10 @@
         <v>50</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G9" s="32" t="s">
         <v>153</v>
@@ -3082,7 +3130,7 @@
         <v>50</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F10" s="35" t="s">
         <v>157</v>
@@ -3142,10 +3190,10 @@
         <v>50</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G11" s="35" t="s">
         <v>155</v>
@@ -3202,10 +3250,10 @@
         <v>50</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>156</v>
@@ -3262,7 +3310,7 @@
         <v>51</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F13" s="35" t="s">
         <v>160</v>
@@ -3322,10 +3370,10 @@
         <v>51</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G14" s="35" t="s">
         <v>158</v>
@@ -3382,10 +3430,10 @@
         <v>51</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G15" s="35" t="s">
         <v>156</v>
@@ -3442,7 +3490,7 @@
         <v>51</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F16" s="35" t="s">
         <v>157</v>
@@ -3488,135 +3536,241 @@
       </c>
       <c r="T16" s="35"/>
     </row>
-    <row r="17" spans="1:20">
-      <c r="A17" s="54">
+    <row r="17" spans="1:65" s="63" customFormat="1">
+      <c r="A17" s="32">
         <v>15</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="50">
+      <c r="C17" s="60">
         <v>14110410127</v>
       </c>
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="E17" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="E17" s="54" t="s">
-        <v>165</v>
-      </c>
-      <c r="F17" s="54" t="s">
-        <v>162</v>
-      </c>
-      <c r="G17" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="H17" s="54" t="s">
-        <v>176</v>
-      </c>
-      <c r="I17" s="54" t="s">
+      <c r="G17" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="58" t="s">
+        <v>193</v>
+      </c>
+      <c r="I17" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="54" t="s">
-        <v>200</v>
-      </c>
-      <c r="K17" s="54">
+      <c r="J17" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="58">
         <v>79.5</v>
       </c>
-      <c r="L17" s="54">
+      <c r="L17" s="58">
         <v>28</v>
       </c>
-      <c r="M17" s="54">
-        <v>194</v>
-      </c>
-      <c r="N17" s="62">
+      <c r="M17" s="32">
+        <v>195</v>
+      </c>
+      <c r="N17" s="61">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O17" s="54" t="s">
+      <c r="O17" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="P17" s="54">
+      <c r="P17" s="58">
         <v>85.67</v>
       </c>
-      <c r="Q17" s="54">
+      <c r="Q17" s="58">
         <v>8</v>
       </c>
-      <c r="R17" s="54">
+      <c r="R17" s="58">
         <v>193</v>
       </c>
-      <c r="S17" s="62">
-        <v>0.04</v>
-      </c>
-      <c r="T17" s="35"/>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" s="54">
+      <c r="S17" s="69">
+        <v>4</v>
+      </c>
+      <c r="T17" s="62"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="47"/>
+      <c r="W17" s="47"/>
+      <c r="X17" s="47"/>
+      <c r="Y17" s="47"/>
+      <c r="Z17" s="47"/>
+      <c r="AA17" s="47"/>
+      <c r="AB17" s="47"/>
+      <c r="AC17" s="47"/>
+      <c r="AD17" s="47"/>
+      <c r="AE17" s="47"/>
+      <c r="AF17" s="47"/>
+      <c r="AG17" s="47"/>
+      <c r="AH17" s="47"/>
+      <c r="AI17" s="47"/>
+      <c r="AJ17" s="47"/>
+      <c r="AK17" s="47"/>
+      <c r="AL17" s="47"/>
+      <c r="AM17" s="47"/>
+      <c r="AN17" s="47"/>
+      <c r="AO17" s="47"/>
+      <c r="AP17" s="47"/>
+      <c r="AQ17" s="47"/>
+      <c r="AR17" s="47"/>
+      <c r="AS17" s="47"/>
+      <c r="AT17" s="47"/>
+      <c r="AU17" s="47"/>
+      <c r="AV17" s="47"/>
+      <c r="AW17" s="47"/>
+      <c r="AX17" s="47"/>
+      <c r="AY17" s="47"/>
+      <c r="AZ17" s="47"/>
+      <c r="BA17" s="47"/>
+      <c r="BB17" s="47"/>
+      <c r="BC17" s="47"/>
+      <c r="BD17" s="47"/>
+      <c r="BE17" s="47"/>
+      <c r="BF17" s="47"/>
+      <c r="BG17" s="47"/>
+      <c r="BH17" s="47"/>
+      <c r="BI17" s="47"/>
+      <c r="BJ17" s="47"/>
+      <c r="BK17" s="47"/>
+      <c r="BL17" s="47"/>
+      <c r="BM17" s="47"/>
+    </row>
+    <row r="18" spans="1:65" s="63" customFormat="1">
+      <c r="A18" s="32">
         <v>16</v>
       </c>
-      <c r="B18" s="54" t="s">
-        <v>170</v>
-      </c>
-      <c r="C18" s="50">
+      <c r="B18" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="60">
         <v>1411041020</v>
       </c>
-      <c r="D18" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="E18" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="F18" s="54" t="s">
-        <v>175</v>
-      </c>
-      <c r="G18" s="54" t="s">
+      <c r="D18" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="E18" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="F18" s="58" t="s">
+        <v>198</v>
+      </c>
+      <c r="G18" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="I18" s="32" t="s">
+      <c r="H18" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="I18" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="J18" s="32" t="s">
+      <c r="J18" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="58">
         <v>82.55</v>
       </c>
-      <c r="L18" s="54">
+      <c r="L18" s="58">
         <v>5</v>
       </c>
-      <c r="M18" s="54">
+      <c r="M18" s="32">
         <v>195</v>
       </c>
-      <c r="N18" s="55">
+      <c r="N18" s="61">
         <f>(5/195)*100</f>
         <v>2.5641025641025639</v>
       </c>
-      <c r="O18" s="32" t="s">
+      <c r="O18" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="54"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="P18" s="58">
+        <v>74</v>
+      </c>
+      <c r="Q18" s="58">
+        <v>30</v>
+      </c>
+      <c r="R18" s="58">
+        <v>193</v>
+      </c>
+      <c r="S18" s="69">
+        <v>15</v>
+      </c>
+      <c r="T18" s="62"/>
+      <c r="U18" s="47"/>
+      <c r="V18" s="47"/>
+      <c r="W18" s="47"/>
+      <c r="X18" s="47"/>
+      <c r="Y18" s="47"/>
+      <c r="Z18" s="47"/>
+      <c r="AA18" s="47"/>
+      <c r="AB18" s="47"/>
+      <c r="AC18" s="47"/>
+      <c r="AD18" s="47"/>
+      <c r="AE18" s="47"/>
+      <c r="AF18" s="47"/>
+      <c r="AG18" s="47"/>
+      <c r="AH18" s="47"/>
+      <c r="AI18" s="47"/>
+      <c r="AJ18" s="47"/>
+      <c r="AK18" s="47"/>
+      <c r="AL18" s="47"/>
+      <c r="AM18" s="47"/>
+      <c r="AN18" s="47"/>
+      <c r="AO18" s="47"/>
+      <c r="AP18" s="47"/>
+      <c r="AQ18" s="47"/>
+      <c r="AR18" s="47"/>
+      <c r="AS18" s="47"/>
+      <c r="AT18" s="47"/>
+      <c r="AU18" s="47"/>
+      <c r="AV18" s="47"/>
+      <c r="AW18" s="47"/>
+      <c r="AX18" s="47"/>
+      <c r="AY18" s="47"/>
+      <c r="AZ18" s="47"/>
+      <c r="BA18" s="47"/>
+      <c r="BB18" s="47"/>
+      <c r="BC18" s="47"/>
+      <c r="BD18" s="47"/>
+      <c r="BE18" s="47"/>
+      <c r="BF18" s="47"/>
+      <c r="BG18" s="47"/>
+      <c r="BH18" s="47"/>
+      <c r="BI18" s="47"/>
+      <c r="BJ18" s="47"/>
+      <c r="BK18" s="47"/>
+      <c r="BL18" s="47"/>
+      <c r="BM18" s="47"/>
+    </row>
+    <row r="19" spans="1:65">
       <c r="A19" s="54">
         <v>17</v>
       </c>
-      <c r="B19" s="54" t="s">
-        <v>171</v>
-      </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
+      <c r="B19" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="C19" s="50">
+        <v>14110410408</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="E19" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>24</v>
+      </c>
       <c r="H19" s="32" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="I19" s="32" t="s">
         <v>32</v>
@@ -3624,42 +3778,59 @@
       <c r="J19" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
+      <c r="K19" s="18">
+        <v>80.75</v>
+      </c>
+      <c r="L19" s="17">
+        <v>20</v>
+      </c>
+      <c r="M19" s="32">
+        <v>195</v>
+      </c>
+      <c r="N19" s="40">
+        <v>0.11</v>
+      </c>
       <c r="O19" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="54"/>
-      <c r="S19" s="54"/>
-      <c r="T19" s="54"/>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="P19" s="35">
+        <v>75.75</v>
+      </c>
+      <c r="Q19" s="35">
+        <v>34</v>
+      </c>
+      <c r="R19" s="32">
+        <v>195</v>
+      </c>
+      <c r="S19" s="48">
+        <v>0.2</v>
+      </c>
+      <c r="T19" s="35"/>
+    </row>
+    <row r="20" spans="1:65" s="59" customFormat="1">
       <c r="A20" s="54">
         <v>18</v>
       </c>
-      <c r="B20" s="54" t="s">
-        <v>172</v>
+      <c r="B20" s="32" t="s">
+        <v>195</v>
       </c>
       <c r="C20" s="50">
         <v>14110410204</v>
       </c>
-      <c r="D20" s="54" t="s">
-        <v>187</v>
+      <c r="D20" s="32" t="s">
+        <v>176</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="F20" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="G20" s="54" t="s">
-        <v>189</v>
+        <v>163</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>24</v>
       </c>
       <c r="H20" s="32" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="I20" s="32" t="s">
         <v>32</v>
@@ -3667,122 +3838,227 @@
       <c r="J20" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="K20" s="54">
-        <v>78.62</v>
-      </c>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
+      <c r="K20" s="18">
+        <v>78.56</v>
+      </c>
+      <c r="L20" s="17">
+        <v>36</v>
+      </c>
+      <c r="M20" s="32">
+        <v>195</v>
+      </c>
+      <c r="N20" s="40">
+        <v>0.15</v>
+      </c>
       <c r="O20" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="P20" s="54">
-        <v>77.040000000000006</v>
-      </c>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="P20" s="35">
+        <v>79.45</v>
+      </c>
+      <c r="Q20" s="35">
+        <v>20</v>
+      </c>
+      <c r="R20" s="32">
+        <v>193</v>
+      </c>
+      <c r="S20" s="48">
+        <v>0.1</v>
+      </c>
+      <c r="T20" s="64"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="47"/>
+      <c r="X20" s="47"/>
+      <c r="Y20" s="47"/>
+      <c r="Z20" s="47"/>
+      <c r="AA20" s="47"/>
+      <c r="AB20" s="47"/>
+      <c r="AC20" s="47"/>
+      <c r="AD20" s="47"/>
+      <c r="AE20" s="47"/>
+      <c r="AF20" s="47"/>
+      <c r="AG20" s="47"/>
+      <c r="AH20" s="47"/>
+      <c r="AI20" s="47"/>
+      <c r="AJ20" s="47"/>
+      <c r="AK20" s="47"/>
+      <c r="AL20" s="47"/>
+      <c r="AM20" s="47"/>
+      <c r="AN20" s="47"/>
+      <c r="AO20" s="47"/>
+      <c r="AP20" s="47"/>
+      <c r="AQ20" s="47"/>
+      <c r="AR20" s="47"/>
+      <c r="AS20" s="47"/>
+      <c r="AT20" s="47"/>
+      <c r="AU20" s="47"/>
+      <c r="AV20" s="47"/>
+      <c r="AW20" s="47"/>
+      <c r="AX20" s="47"/>
+      <c r="AY20" s="47"/>
+      <c r="AZ20" s="47"/>
+      <c r="BA20" s="47"/>
+      <c r="BB20" s="47"/>
+      <c r="BC20" s="47"/>
+      <c r="BD20" s="47"/>
+      <c r="BE20" s="47"/>
+      <c r="BF20" s="47"/>
+      <c r="BG20" s="47"/>
+      <c r="BH20" s="47"/>
+      <c r="BI20" s="47"/>
+      <c r="BJ20" s="47"/>
+      <c r="BK20" s="47"/>
+      <c r="BL20" s="47"/>
+      <c r="BM20" s="47"/>
+    </row>
+    <row r="21" spans="1:65">
       <c r="A21" s="54">
         <v>19</v>
       </c>
-      <c r="B21" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
+      <c r="B21" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" s="50">
+        <v>14110600311</v>
+      </c>
+      <c r="D21" s="65" t="s">
+        <v>196</v>
+      </c>
       <c r="E21" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="F21" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
+      <c r="G21" s="35" t="s">
+        <v>24</v>
+      </c>
       <c r="H21" s="32" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="I21" s="32" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J21" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
+      <c r="K21" s="18">
+        <v>77.08</v>
+      </c>
+      <c r="L21" s="17">
+        <v>105</v>
+      </c>
+      <c r="M21" s="32">
+        <v>316</v>
+      </c>
+      <c r="N21" s="40">
+        <v>33</v>
+      </c>
       <c r="O21" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="P21" s="35">
+        <v>76.77</v>
+      </c>
+      <c r="Q21" s="35">
+        <v>122</v>
+      </c>
+      <c r="R21" s="32">
+        <v>316</v>
+      </c>
+      <c r="S21" s="48">
+        <v>39</v>
+      </c>
+      <c r="T21" s="35"/>
+    </row>
+    <row r="22" spans="1:65">
       <c r="A22" s="54">
         <v>20</v>
       </c>
-      <c r="B22" s="54" t="s">
-        <v>174</v>
-      </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
+      <c r="B22" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="C22" s="65">
+        <v>14110600216</v>
+      </c>
+      <c r="D22" s="65" t="s">
+        <v>196</v>
+      </c>
       <c r="E22" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
+        <v>163</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>24</v>
+      </c>
       <c r="H22" s="32" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="I22" s="32" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J22" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
+      <c r="K22" s="18">
+        <v>80.150000000000006</v>
+      </c>
+      <c r="L22" s="17">
+        <v>33</v>
+      </c>
+      <c r="M22" s="32">
+        <v>316</v>
+      </c>
+      <c r="N22" s="40">
+        <v>0.10440000000000001</v>
+      </c>
       <c r="O22" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="54"/>
-      <c r="S22" s="54"/>
-      <c r="T22" s="54"/>
-    </row>
-    <row r="23" spans="1:20">
+      <c r="P22" s="35">
+        <v>78.239999999999995</v>
+      </c>
+      <c r="Q22" s="35">
+        <v>83</v>
+      </c>
+      <c r="R22" s="32">
+        <v>316</v>
+      </c>
+      <c r="S22" s="48">
+        <v>0.2626</v>
+      </c>
+      <c r="T22" s="35"/>
+    </row>
+    <row r="23" spans="1:65" s="59" customFormat="1">
       <c r="A23" s="54">
         <v>21</v>
       </c>
       <c r="B23" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="C23" s="65">
+        <v>15180410303</v>
+      </c>
+      <c r="D23" s="65" t="s">
+        <v>162</v>
+      </c>
+      <c r="E23" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="C23" s="50">
-        <v>15180410303</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="E23" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="F23" s="35" t="s">
-        <v>165</v>
+      <c r="F23" s="32" t="s">
+        <v>163</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H23" s="32" t="s">
         <v>25</v>
       </c>
       <c r="I23" s="32" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="J23" s="32" t="s">
         <v>28</v>
@@ -3791,8 +4067,8 @@
       <c r="L23" s="17"/>
       <c r="M23" s="32"/>
       <c r="N23" s="40"/>
-      <c r="O23" s="32" t="s">
-        <v>168</v>
+      <c r="O23" s="35" t="s">
+        <v>28</v>
       </c>
       <c r="P23" s="35">
         <v>80.290000000000006</v>
@@ -3806,29 +4082,119 @@
       <c r="S23" s="48">
         <v>5</v>
       </c>
-      <c r="T23" s="35"/>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="54"/>
-      <c r="R24" s="54"/>
-      <c r="S24" s="54"/>
-      <c r="T24" s="54"/>
+      <c r="T23" s="58"/>
+      <c r="U23" s="47"/>
+      <c r="V23" s="47"/>
+      <c r="W23" s="47"/>
+      <c r="X23" s="47"/>
+      <c r="Y23" s="47"/>
+      <c r="Z23" s="47"/>
+      <c r="AA23" s="47"/>
+      <c r="AB23" s="47"/>
+      <c r="AC23" s="47"/>
+      <c r="AD23" s="47"/>
+      <c r="AE23" s="47"/>
+      <c r="AF23" s="47"/>
+      <c r="AG23" s="47"/>
+      <c r="AH23" s="47"/>
+      <c r="AI23" s="47"/>
+      <c r="AJ23" s="47"/>
+      <c r="AK23" s="47"/>
+      <c r="AL23" s="47"/>
+      <c r="AM23" s="47"/>
+      <c r="AN23" s="47"/>
+      <c r="AO23" s="47"/>
+      <c r="AP23" s="47"/>
+      <c r="AQ23" s="47"/>
+      <c r="AR23" s="47"/>
+      <c r="AS23" s="47"/>
+      <c r="AT23" s="47"/>
+      <c r="AU23" s="47"/>
+      <c r="AV23" s="47"/>
+      <c r="AW23" s="47"/>
+      <c r="AX23" s="47"/>
+      <c r="AY23" s="47"/>
+      <c r="AZ23" s="47"/>
+      <c r="BA23" s="47"/>
+      <c r="BB23" s="47"/>
+      <c r="BC23" s="47"/>
+      <c r="BD23" s="47"/>
+      <c r="BE23" s="47"/>
+      <c r="BF23" s="47"/>
+      <c r="BG23" s="47"/>
+      <c r="BH23" s="47"/>
+      <c r="BI23" s="47"/>
+      <c r="BJ23" s="47"/>
+      <c r="BK23" s="47"/>
+      <c r="BL23" s="47"/>
+      <c r="BM23" s="47"/>
+    </row>
+    <row r="24" spans="1:65" s="59" customFormat="1">
+      <c r="A24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="58"/>
+      <c r="Q24" s="58"/>
+      <c r="R24" s="58"/>
+      <c r="S24" s="58"/>
+      <c r="T24" s="58"/>
+      <c r="U24" s="47"/>
+      <c r="V24" s="47"/>
+      <c r="W24" s="47"/>
+      <c r="X24" s="47"/>
+      <c r="Y24" s="47"/>
+      <c r="Z24" s="47"/>
+      <c r="AA24" s="47"/>
+      <c r="AB24" s="47"/>
+      <c r="AC24" s="47"/>
+      <c r="AD24" s="47"/>
+      <c r="AE24" s="47"/>
+      <c r="AF24" s="47"/>
+      <c r="AG24" s="47"/>
+      <c r="AH24" s="47"/>
+      <c r="AI24" s="47"/>
+      <c r="AJ24" s="47"/>
+      <c r="AK24" s="47"/>
+      <c r="AL24" s="47"/>
+      <c r="AM24" s="47"/>
+      <c r="AN24" s="47"/>
+      <c r="AO24" s="47"/>
+      <c r="AP24" s="47"/>
+      <c r="AQ24" s="47"/>
+      <c r="AR24" s="47"/>
+      <c r="AS24" s="47"/>
+      <c r="AT24" s="47"/>
+      <c r="AU24" s="47"/>
+      <c r="AV24" s="47"/>
+      <c r="AW24" s="47"/>
+      <c r="AX24" s="47"/>
+      <c r="AY24" s="47"/>
+      <c r="AZ24" s="47"/>
+      <c r="BA24" s="47"/>
+      <c r="BB24" s="47"/>
+      <c r="BC24" s="47"/>
+      <c r="BD24" s="47"/>
+      <c r="BE24" s="47"/>
+      <c r="BF24" s="47"/>
+      <c r="BG24" s="47"/>
+      <c r="BH24" s="47"/>
+      <c r="BI24" s="47"/>
+      <c r="BJ24" s="47"/>
+      <c r="BK24" s="47"/>
+      <c r="BL24" s="47"/>
+      <c r="BM24" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3841,47 +4207,47 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T60"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="27"/>
-    <col min="3" max="3" width="10.4140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="27" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="27" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="27" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" style="27" customWidth="1"/>
-    <col min="8" max="13" width="8.83203125" style="27" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="27" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" style="27" customWidth="1"/>
-    <col min="16" max="16384" width="8.83203125" style="27"/>
+    <col min="1" max="2" width="8.875" style="27"/>
+    <col min="3" max="3" width="10.375" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="27" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="19.625" style="27" customWidth="1"/>
+    <col min="8" max="13" width="8.875" style="27" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="27" customWidth="1"/>
+    <col min="15" max="15" width="8.875" style="27" customWidth="1"/>
+    <col min="16" max="16384" width="8.875" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="28.5" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
       <c r="R1" s="25"/>
       <c r="S1" s="25"/>
       <c r="T1" s="26"/>
@@ -7327,44 +7693,44 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="47"/>
-    <col min="3" max="3" width="12.33203125" style="47" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.9140625" style="47" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" style="47" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="47" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="47"/>
+    <col min="1" max="2" width="8.875" style="47"/>
+    <col min="3" max="3" width="12.375" style="47" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="47" customWidth="1"/>
+    <col min="5" max="5" width="25.125" style="47" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="47" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
       <c r="S1" s="43"/>
       <c r="T1" s="43"/>
       <c r="U1" s="42"/>
@@ -7447,7 +7813,7 @@
         <v>13110600522</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="E3" s="41" t="s">
         <v>147</v>
@@ -7509,7 +7875,7 @@
         <v>13110600213</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="E4" s="41" t="s">
         <v>148</v>
@@ -7573,7 +7939,7 @@
         <v>13110600807</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="E5" s="41" t="s">
         <v>149</v>
@@ -7582,7 +7948,7 @@
         <v>121</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="H5" s="41"/>
       <c r="I5" s="32" t="s">
@@ -7637,7 +8003,7 @@
         <v>13110601135</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="E6" s="41" t="s">
         <v>126</v>
@@ -7646,7 +8012,7 @@
         <v>125</v>
       </c>
       <c r="G6" s="41" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="H6" s="41"/>
       <c r="I6" s="32" t="s">
@@ -7695,13 +8061,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C7" s="41">
         <v>13110600122</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E7" s="41" t="s">
         <v>127</v>
@@ -7729,7 +8095,7 @@
       <c r="N7" s="32">
         <v>291</v>
       </c>
-      <c r="O7" s="57">
+      <c r="O7" s="56">
         <f t="shared" si="2"/>
         <v>60.481099656357387</v>
       </c>
@@ -7757,13 +8123,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C8" s="41">
         <v>13110600111</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="E8" s="41" t="s">
         <v>129</v>
@@ -7791,14 +8157,14 @@
       <c r="N8" s="32">
         <v>291</v>
       </c>
-      <c r="O8" s="56">
+      <c r="O8" s="55">
         <f t="shared" si="2"/>
         <v>27.835051546391753</v>
       </c>
       <c r="P8" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="Q8" s="58">
+      <c r="Q8" s="57">
         <v>79.88</v>
       </c>
       <c r="R8" s="41">
@@ -7819,13 +8185,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C9" s="41">
         <v>13110600414</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="E9" s="41" t="s">
         <v>131</v>
@@ -7853,7 +8219,7 @@
       <c r="N9" s="32">
         <v>291</v>
       </c>
-      <c r="O9" s="56">
+      <c r="O9" s="55">
         <f t="shared" si="2"/>
         <v>32.646048109965633</v>
       </c>
@@ -7881,13 +8247,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C10" s="41">
         <v>13110600821</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E10" s="41" t="s">
         <v>132</v>
@@ -7915,7 +8281,7 @@
       <c r="N10" s="32">
         <v>291</v>
       </c>
-      <c r="O10" s="56">
+      <c r="O10" s="55">
         <f t="shared" si="2"/>
         <v>13.402061855670103</v>
       </c>
@@ -7949,7 +8315,7 @@
         <v>13110600309</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="E11" s="41" t="s">
         <v>138</v>
@@ -8005,7 +8371,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C12" s="41">
         <v>13110600219</v>
@@ -8039,7 +8405,7 @@
       <c r="N12" s="32">
         <v>291</v>
       </c>
-      <c r="O12" s="56">
+      <c r="O12" s="55">
         <f t="shared" si="4"/>
         <v>45.017182130584196</v>
       </c>
